--- a/data/hotels_by_city/Miami/Miami_shard_403.xlsx
+++ b/data/hotels_by_city/Miami/Miami_shard_403.xlsx
@@ -7,8 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,148 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
+    <t>10/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d141952-r624671798-Plaza_Hotel_Fort_Lauderdale-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>34227</t>
+  </si>
+  <si>
+    <t>141952</t>
+  </si>
+  <si>
+    <t>624671798</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>FILTHY</t>
+  </si>
+  <si>
+    <t>Rooms stank. Staff was rude. Bathrooms were molded and falling apart. Smells like weed factory and staff favored certain guest who were charged a much lower price. They may have been family or friends. They came with no bags like they came to party or hang out.bring you own bedding. Sheets had spots and blanket probably been used over and over again for a month.</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d141952-r624511598-Plaza_Hotel_Fort_Lauderdale-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>624511598</t>
+  </si>
+  <si>
+    <t>10/13/2018</t>
+  </si>
+  <si>
+    <t>4 night stay</t>
+  </si>
+  <si>
+    <t>Our stay was part of a package that included staying at this motel, cruising to Freeport, Bahamas and staying at a Wyndam resort outside of Freeport.  We stayed two nights before the cruise and two more after in three different rooms.  We changed rooms the first time after going on the cruise.  Our 2nd room was not as far down the hall, on a different floor, but the A/C unit condensation drain from the room above didn't drain correctly, dripped noisily on the metal flashing around our A/C.  Ended up the 3rd room did the same.  TV channels for local stations were extremely snowy if you could get them at all.  CNN was news channel of their choice.  Some carpets were fairly recent, painting was being done while we were there. The bathrooms in all three rooms needed attention, chrome was gone from faucet drain, tub didn't drain well, counters were chipped, you wondered if the tub faucet was going to break off in your hand it turned so hard, you didn't feel like you wanted to use it.   We had vouchers to eat all our meals at the ONE restaurant on grounds, we were required to pay a service fee and tax on each meal/person along with the voucher plus tip.  There was very limited variety in food choices at each meal time.  They wanted $4.95 for a glass of breakfast orange juice. The pool area was very nice,...Our stay was part of a package that included staying at this motel, cruising to Freeport, Bahamas and staying at a Wyndam resort outside of Freeport.  We stayed two nights before the cruise and two more after in three different rooms.  We changed rooms the first time after going on the cruise.  Our 2nd room was not as far down the hall, on a different floor, but the A/C unit condensation drain from the room above didn't drain correctly, dripped noisily on the metal flashing around our A/C.  Ended up the 3rd room did the same.  TV channels for local stations were extremely snowy if you could get them at all.  CNN was news channel of their choice.  Some carpets were fairly recent, painting was being done while we were there. The bathrooms in all three rooms needed attention, chrome was gone from faucet drain, tub didn't drain well, counters were chipped, you wondered if the tub faucet was going to break off in your hand it turned so hard, you didn't feel like you wanted to use it.   We had vouchers to eat all our meals at the ONE restaurant on grounds, we were required to pay a service fee and tax on each meal/person along with the voucher plus tip.  There was very limited variety in food choices at each meal time.  They wanted $4.95 for a glass of breakfast orange juice. The pool area was very nice, water was bathtub warm.  During the second part of our stay we ate our meals off grounds, was cheaper and better.  Most of the corporate logo materials were labeled Ramada or Wyndam, but the outside marquee was Plaza Hotel and was hard to see while driving by.  Wyndam Resorts during our "time share" presentation, downplayed their relationship with the motel.  Saw NO bugs.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Our stay was part of a package that included staying at this motel, cruising to Freeport, Bahamas and staying at a Wyndam resort outside of Freeport.  We stayed two nights before the cruise and two more after in three different rooms.  We changed rooms the first time after going on the cruise.  Our 2nd room was not as far down the hall, on a different floor, but the A/C unit condensation drain from the room above didn't drain correctly, dripped noisily on the metal flashing around our A/C.  Ended up the 3rd room did the same.  TV channels for local stations were extremely snowy if you could get them at all.  CNN was news channel of their choice.  Some carpets were fairly recent, painting was being done while we were there. The bathrooms in all three rooms needed attention, chrome was gone from faucet drain, tub didn't drain well, counters were chipped, you wondered if the tub faucet was going to break off in your hand it turned so hard, you didn't feel like you wanted to use it.   We had vouchers to eat all our meals at the ONE restaurant on grounds, we were required to pay a service fee and tax on each meal/person along with the voucher plus tip.  There was very limited variety in food choices at each meal time.  They wanted $4.95 for a glass of breakfast orange juice. The pool area was very nice,...Our stay was part of a package that included staying at this motel, cruising to Freeport, Bahamas and staying at a Wyndam resort outside of Freeport.  We stayed two nights before the cruise and two more after in three different rooms.  We changed rooms the first time after going on the cruise.  Our 2nd room was not as far down the hall, on a different floor, but the A/C unit condensation drain from the room above didn't drain correctly, dripped noisily on the metal flashing around our A/C.  Ended up the 3rd room did the same.  TV channels for local stations were extremely snowy if you could get them at all.  CNN was news channel of their choice.  Some carpets were fairly recent, painting was being done while we were there. The bathrooms in all three rooms needed attention, chrome was gone from faucet drain, tub didn't drain well, counters were chipped, you wondered if the tub faucet was going to break off in your hand it turned so hard, you didn't feel like you wanted to use it.   We had vouchers to eat all our meals at the ONE restaurant on grounds, we were required to pay a service fee and tax on each meal/person along with the voucher plus tip.  There was very limited variety in food choices at each meal time.  They wanted $4.95 for a glass of breakfast orange juice. The pool area was very nice, water was bathtub warm.  During the second part of our stay we ate our meals off grounds, was cheaper and better.  Most of the corporate logo materials were labeled Ramada or Wyndam, but the outside marquee was Plaza Hotel and was hard to see while driving by.  Wyndam Resorts during our "time share" presentation, downplayed their relationship with the motel.  Saw NO bugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d141952-r624023023-Plaza_Hotel_Fort_Lauderdale-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>624023023</t>
+  </si>
+  <si>
+    <t>10/11/2018</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>DO NOT stay in this disguising, nasty filthy hotel.  They have bugs and the staff is terrible.  They would not change the room to assist us.  They instead argued with us..  Customer service is terrible.  It’s not s clean.</t>
+  </si>
   <si>
     <t>STR#</t>
   </si>
@@ -73,81 +214,6 @@
   </si>
   <si>
     <t>https://www.orbitz.com/Fort-Lauderdale-Hotels-Ramada-Plaza-By-Wyndham-Fort-Lauderdale.h9709.Hotel-Information</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -521,37 +587,235 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>655</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>655</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>655</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -573,79 +837,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>655</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
